--- a/src/main/resources/testData/sitegenisis.xlsx
+++ b/src/main/resources/testData/sitegenisis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KrupenPatel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AE4EED-51CB-44A0-829D-B3E2B0974507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6836F4C-A7FA-48EA-B65A-6CAE0CFADEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A04CECFA-9F7D-4178-9329-F0FF206B0C8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="validate_user" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +33,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>krupen.patel@orioncoders.com</t>
+  </si>
+  <si>
+    <t>krupenpatel123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Krupen@123</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +66,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,14 +97,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,13 +443,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A62A7-3250-4C6E-8558-443CC9180CE5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3154E5BE-7FCD-4134-AA3F-4941CFD9397D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{3BDB4FF1-1AEC-430E-B9EA-A0C71931A7A8}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{E4B04183-162A-4651-854C-ACFCEE93C3A9}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{BE847C65-4E61-430F-9839-F01502468DBB}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{C9EC09CD-5C2F-4EFE-B294-25146259C2DC}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{77FFA8EB-EF85-4ED2-9C0F-24D29E6F45BB}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{8F530940-579A-4E60-934B-E8F90F7B5287}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{216593A5-5F4C-40B6-98D4-5AF4EDCB7E8E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/src/main/resources/testData/sitegenisis.xlsx
+++ b/src/main/resources/testData/sitegenisis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KrupenPatel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6836F4C-A7FA-48EA-B65A-6CAE0CFADEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7E3BE1-56B7-4820-9279-53932C2A9CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A04CECFA-9F7D-4178-9329-F0FF206B0C8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A04CECFA-9F7D-4178-9329-F0FF206B0C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="validate_user" sheetId="1" r:id="rId1"/>
+    <sheet name="keyword" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -52,6 +53,21 @@
   </si>
   <si>
     <t>Krupen@123</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>shirts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>ne</t>
   </si>
 </sst>
 </file>
@@ -117,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -128,6 +144,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A62A7-3250-4C6E-8558-443CC9180CE5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +543,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C893C8C5-014D-4156-8963-86C9CED41766}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>